--- a/portpro - Copy.xlsx
+++ b/portpro - Copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9cbb7e35ec495fa9/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karansonawane\Downloads\Projects\Namma Yatra Project\Yatri-2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="8_{A9684FFC-A2F6-4034-8BBF-D3E2B0D56F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4A27A22-7389-47C6-93E9-73A17E632B07}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52672ADC-2976-4AE8-B39A-CFE29A0F330C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{13930A60-C7F5-4E97-826E-014A02E9524E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{13930A60-C7F5-4E97-826E-014A02E9524E}"/>
   </bookViews>
   <sheets>
     <sheet name="assembly" sheetId="1" r:id="rId1"/>
@@ -344,14 +344,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -389,7 +385,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -495,7 +491,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -637,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -647,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AABD0D5-5858-441A-BC63-F648FE72A30A}">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView zoomScale="236" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -970,8 +966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBEACA74-DD24-4CA3-8A16-FD2AB9F27FF0}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="204" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA2CA58-BC3E-4E94-855D-60261D3F0060}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1240,7 +1236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389A470F-EFD5-4749-91F4-B2CEEE8D530E}">
   <dimension ref="A1:I984"/>
   <sheetViews>
-    <sheetView zoomScale="166" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -29794,8 +29790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AD1D5D-D315-42FC-A718-8608EE1A5D51}">
   <dimension ref="A1:J2162"/>
   <sheetViews>
-    <sheetView zoomScale="141" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
